--- a/個人制作/GoodLuckyer.xlsx
+++ b/個人制作/GoodLuckyer.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\個人制作2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\GoodLuckyer\個人制作\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="2" r:id="rId1"/>
     <sheet name="武器＆特殊効果" sheetId="3" r:id="rId2"/>
-    <sheet name="シーンフロー" sheetId="1" r:id="rId3"/>
+    <sheet name="主人公" sheetId="4" r:id="rId3"/>
+    <sheet name="シーンフロー" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,17 +27,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>タイトル：</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ジャンル：3Dアクション</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>内容：ゲーム開始時に使用する武器と特殊効果をランダムで一つずつ獲得し、制限時間内にゴールを目指す</t>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナックル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル：Good Luckyer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特殊効果</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容：ゲーム開始時に使用する攻撃手段と特殊効果をランダムで一つずつ獲得し、制限時間内にゴールを目指す</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
@@ -46,23 +87,65 @@
     <rPh sb="10" eb="12">
       <t>シヨウ</t>
     </rPh>
-    <rPh sb="14" eb="16">
-      <t>ブキ</t>
-    </rPh>
-    <rPh sb="17" eb="21">
+    <rPh sb="14" eb="18">
+      <t>コウゲキシュダン</t>
+    </rPh>
+    <rPh sb="19" eb="23">
       <t>トクシュコウカ</t>
     </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="29" eb="30">
       <t>ヒト</t>
     </rPh>
-    <rPh sb="31" eb="33">
+    <rPh sb="33" eb="35">
       <t>カクトク</t>
     </rPh>
-    <rPh sb="35" eb="40">
+    <rPh sb="37" eb="42">
       <t>セイゲン</t>
     </rPh>
-    <rPh sb="45" eb="47">
+    <rPh sb="47" eb="49">
       <t>メザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度２倍・与ダメ1/2倍</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタミナ消費</t>
+    <rPh sb="4" eb="6">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費スタミナ・与ダメ2倍（1/2倍）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>バイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -71,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +170,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -96,11 +195,76 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -110,8 +274,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -132,6 +329,131 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215348</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8042413" y="695739"/>
+          <a:ext cx="3578087" cy="3089413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>案出し</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「スタミナ切れ」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>攻撃し続けると、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>疲れて一定時間攻撃できなくなる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「スタミナ消費」</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1537,42 +1859,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="44.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="3:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="3:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="C11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="3:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="3:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="3:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1582,7 +2022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/個人制作/GoodLuckyer.xlsx
+++ b/個人制作/GoodLuckyer.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\GoodLuckyer\個人制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA2B\Desktop\個人制作2\個人制作\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="2" r:id="rId1"/>
     <sheet name="武器＆特殊効果" sheetId="3" r:id="rId2"/>
     <sheet name="主人公" sheetId="4" r:id="rId3"/>
     <sheet name="シーンフロー" sheetId="1" r:id="rId4"/>
+    <sheet name="タイトル" sheetId="5" r:id="rId5"/>
+    <sheet name="ホーム" sheetId="6" r:id="rId6"/>
+    <sheet name="メイン" sheetId="7" r:id="rId7"/>
+    <sheet name="敵" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ジャンル：3Dアクション</t>
     <phoneticPr fontId="1"/>
@@ -108,25 +112,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動速度２倍・与ダメ1/2倍</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スタミナ消費</t>
     <rPh sb="4" eb="6">
       <t>ショウヒ</t>
@@ -146,6 +131,131 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度２倍(1/2)・与ダメ1/2倍(2)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタミナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WASD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左クリック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作方法</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被ダメ２倍</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与ダメ２倍</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被ダメ1/2倍・与ダメ2倍</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力２倍</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタミナ２倍</t>
+    <rPh sb="5" eb="6">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率(%)</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -274,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +421,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -338,10 +457,10 @@
       <xdr:rowOff>215348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>256761</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>182217</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>231913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -351,7 +470,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8042413" y="695739"/>
-          <a:ext cx="3578087" cy="3089413"/>
+          <a:ext cx="6783457" cy="2418522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -438,13 +557,41 @@
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>「スタミナ消費」</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>攻撃するたびにスタミナが消費されていって、スタミナがなくなると攻撃不可になる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「条件付きゴール」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>一定数の敵を倒すことによってゴールが出現してステージクリアすることができる。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1586,6 +1733,969 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="638175"/>
+          <a:ext cx="8629650" cy="5581650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600576" y="1000125"/>
+          <a:ext cx="4229100" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000"/>
+            <a:t>①タイトル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="4000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="4419600"/>
+          <a:ext cx="2619375" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000"/>
+            <a:t>②ホーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12058650" y="1219201"/>
+          <a:ext cx="5181600" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>説明</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>①タイトルロゴを表示する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>②ホーム画面に移動するボタンを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>　表示する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="876300"/>
+          <a:ext cx="8410575" cy="5381625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552826" y="1628775"/>
+          <a:ext cx="2076450" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>①ステージ１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="3000375"/>
+          <a:ext cx="2076450" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>②ステージ２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="4486275"/>
+          <a:ext cx="2076450" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>③ステージ３</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496175" y="2381250"/>
+          <a:ext cx="1790700" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>④タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515225" y="3924300"/>
+          <a:ext cx="1790700" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>⑤エンド</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="819150"/>
+          <a:ext cx="7629525" cy="4924425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>説明</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>①ステージ１に移動するボタンを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ステージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>２</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に移動するボタンを表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ステージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>３</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>に移動するボタンを表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④タイトル画面に移動する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンを表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>⑤ゲームを終了させる</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ボタンを表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1857,11 +2967,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1892,10 +3003,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:F16"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="C2:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1904,11 +3018,13 @@
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="44.625" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="62.875" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="3:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1919,10 +3035,16 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="33" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:9" ht="33" x14ac:dyDescent="0.4">
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,13 +3057,19 @@
       <c r="F4" s="9">
         <v>5</v>
       </c>
+      <c r="H4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="3:6" ht="33" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:9" ht="33" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" s="10">
         <v>2</v>
@@ -1949,8 +3077,14 @@
       <c r="F5" s="10">
         <v>20</v>
       </c>
+      <c r="H5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="10">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="3:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1963,40 +3097,58 @@
       <c r="F6" s="11">
         <v>10</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="10">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="3:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="3:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="1" t="s">
-        <v>6</v>
+    <row r="7" spans="3:9" ht="33" x14ac:dyDescent="0.4">
+      <c r="H7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="10">
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="33" x14ac:dyDescent="0.4">
-      <c r="C11" s="6" t="s">
-        <v>12</v>
+    <row r="8" spans="3:9" ht="33" x14ac:dyDescent="0.4">
+      <c r="H8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="10">
+        <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="33" x14ac:dyDescent="0.4">
-      <c r="C12" s="7" t="s">
-        <v>10</v>
+    <row r="9" spans="3:9" ht="33" x14ac:dyDescent="0.4">
+      <c r="H9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="10">
+        <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="33" x14ac:dyDescent="0.4">
-      <c r="C13" s="6"/>
+    <row r="10" spans="3:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="33" x14ac:dyDescent="0.4">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="3:6" ht="33" x14ac:dyDescent="0.4">
-      <c r="C14" s="6"/>
+    <row r="14" spans="3:9" ht="33" x14ac:dyDescent="0.4">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="3:6" ht="33" x14ac:dyDescent="0.4">
-      <c r="C15" s="6"/>
+    <row r="15" spans="3:9" ht="33" x14ac:dyDescent="0.4">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="3:6" ht="33" x14ac:dyDescent="0.4">
-      <c r="C16" s="6"/>
+    <row r="16" spans="3:9" ht="33" x14ac:dyDescent="0.4">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
@@ -2009,21 +3161,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="E4:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="5" spans="5:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="5:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="5:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="5:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" ht="33" x14ac:dyDescent="0.4">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2036,4 +3253,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/個人制作/GoodLuckyer.xlsx
+++ b/個人制作/GoodLuckyer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="2" r:id="rId1"/>
@@ -3008,7 +3008,7 @@
   </sheetPr>
   <dimension ref="C2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3316,7 +3316,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/個人制作/GoodLuckyer.xlsx
+++ b/個人制作/GoodLuckyer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ゲーム概要" sheetId="2" r:id="rId1"/>
@@ -2696,6 +2696,112 @@
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="409575"/>
+          <a:ext cx="6038850" cy="3800475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>案出し</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・常に背後を取ろうとする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・基本は物陰に隠れて、プレイヤーが一定距離まで近づくと、攻撃してくる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・プレイヤーと一定以上の距離を取り続ける狙撃型</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・一度攻撃してから次の攻撃が可能になるまで、プレイヤーの攻撃を避ける</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2972,7 +3078,9 @@
   </sheetPr>
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3008,7 +3116,7 @@
   </sheetPr>
   <dimension ref="C2:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3262,7 +3370,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J11" workbookViewId="0">
       <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
@@ -3281,7 +3389,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -3312,17 +3420,18 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>